--- a/output/fit_clients/fit_round_244.xlsx
+++ b/output/fit_clients/fit_round_244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1882993198.201783</v>
+        <v>2423664437.820965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0804471284161216</v>
+        <v>0.09572746346728132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04378931852837836</v>
+        <v>0.04393953754665477</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>941496578.9732201</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1824827203.141865</v>
+        <v>2140519615.875132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1407675837068806</v>
+        <v>0.1361384678631086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03634761675030465</v>
+        <v>0.04088755872453188</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>912413614.4907348</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4994190835.485199</v>
+        <v>4898565081.785114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1156382384278006</v>
+        <v>0.124003870587726</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03120423483350965</v>
+        <v>0.03417813656540672</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2497095502.336032</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4155583079.611749</v>
+        <v>3086091206.150919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1081519562668231</v>
+        <v>0.07866191363172322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03700877347599553</v>
+        <v>0.05051290274104276</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2077791533.171149</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1845552253.564903</v>
+        <v>2336289257.290827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09356611105160535</v>
+        <v>0.1205549341044882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04891342964680277</v>
+        <v>0.05428843220954033</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>922776173.084682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2522606699.559446</v>
+        <v>2549288953.69792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09994704052941282</v>
+        <v>0.08159879410732482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04957988986326987</v>
+        <v>0.04164078452616926</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1261303360.6709</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2866104854.627741</v>
+        <v>3548814954.37737</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137522188342899</v>
+        <v>0.1790062718249877</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03093211502848102</v>
+        <v>0.02815071501770386</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1433052471.128134</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2222512127.074738</v>
+        <v>2052723945.13825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1711150320109201</v>
+        <v>0.1946987052620417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02851904630522135</v>
+        <v>0.02850192247679254</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1111256059.270711</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5444574469.889515</v>
+        <v>4535517851.623808</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1970088586781959</v>
+        <v>0.1479017980796917</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05344854890298299</v>
+        <v>0.0419630824610894</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>103</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2722287368.649588</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4199693951.512427</v>
+        <v>3973920130.063491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1572775888689987</v>
+        <v>0.1820372988280636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03635528003045812</v>
+        <v>0.03063490470580161</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>101</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2099847002.333941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2815671461.916711</v>
+        <v>2628248343.311785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1497525702743442</v>
+        <v>0.1303722611360231</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05144703699811251</v>
+        <v>0.0366543495179756</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1407835732.092798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4209340592.011376</v>
+        <v>4823529707.3708</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08167574509681219</v>
+        <v>0.08431367534225123</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03029501214280896</v>
+        <v>0.01957521965821732</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>82</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2104670340.285318</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3694510575.290092</v>
+        <v>3222990899.793573</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1346651023730517</v>
+        <v>0.147822979380145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03013724048353343</v>
+        <v>0.03294995905582764</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1847255271.789925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1344669172.074508</v>
+        <v>1667799309.929758</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08808313257304018</v>
+        <v>0.08970254809896556</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03011779327380855</v>
+        <v>0.04415134939683608</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>672334636.3114061</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2728978751.302889</v>
+        <v>1971641545.682744</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07573354021123495</v>
+        <v>0.115090635348514</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03395730511265725</v>
+        <v>0.04231066244037639</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>43</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1364489386.000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4331862202.607975</v>
+        <v>3399475510.927947</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1423417782977023</v>
+        <v>0.1647373298553439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03864447733467777</v>
+        <v>0.04588975573339115</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2165931119.50178</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2839872040.283494</v>
+        <v>3905572642.830982</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1412344263007762</v>
+        <v>0.1540377021586699</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02903890802714946</v>
+        <v>0.02964490578141123</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1419936062.035562</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293211633.624342</v>
+        <v>840385785.313019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1215701679653113</v>
+        <v>0.1725326935027191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02649323936769008</v>
+        <v>0.01823750334504209</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>646605917.3969251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1834726062.176471</v>
+        <v>2742403971.088599</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1368190079633986</v>
+        <v>0.1571359721236084</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02531133506675939</v>
+        <v>0.0293317438800003</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>917363075.0124224</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2271935249.738758</v>
+        <v>1829101260.960017</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09428065119779414</v>
+        <v>0.08327989557416975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04229033294375922</v>
+        <v>0.04251537214516873</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1135967634.814059</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3941893621.382702</v>
+        <v>3625115373.637838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1356219540869535</v>
+        <v>0.1435749650685897</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05445854758318276</v>
+        <v>0.0497105870251499</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>67</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1970946815.811332</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1549580154.296271</v>
+        <v>1158496029.544045</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1647003995468329</v>
+        <v>0.181209398121213</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04838808476882579</v>
+        <v>0.03847005116272744</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>774790054.7204369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2639449168.230141</v>
+        <v>2763414373.3792</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1498361654330433</v>
+        <v>0.1357385733752678</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0285911532610334</v>
+        <v>0.02336979562662513</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>71</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1319724643.603985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1427381396.882454</v>
+        <v>954215660.5588238</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1069281248054493</v>
+        <v>0.07946585704822653</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02204049579934681</v>
+        <v>0.02300432302363922</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>713690664.0913179</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1184356646.404074</v>
+        <v>1390327555.004723</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1021184559730511</v>
+        <v>0.08972193282778285</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03243187611533811</v>
+        <v>0.02747961303989997</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>592178340.4504502</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4018029477.718684</v>
+        <v>3691402641.351541</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09625156829537856</v>
+        <v>0.102978067270103</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02654134551602309</v>
+        <v>0.02055587047599049</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2009014748.085182</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3847626860.862716</v>
+        <v>3501130909.719435</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1010236266641351</v>
+        <v>0.0979618653965854</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0303276443784773</v>
+        <v>0.03463973939670205</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1923813515.226084</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4973744318.168232</v>
+        <v>5734619603.048615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1344806725832823</v>
+        <v>0.1217942336574638</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03988327667535203</v>
+        <v>0.04362382134011501</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>108</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2486872108.424958</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1981325943.519538</v>
+        <v>1524395826.058035</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1111353434037715</v>
+        <v>0.1026726593755304</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03737161351980721</v>
+        <v>0.03491879116167435</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>990663007.0581083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1024106948.033425</v>
+        <v>1226267958.037124</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1085958078911186</v>
+        <v>0.08801318573191712</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04444736280107951</v>
+        <v>0.03373753702860381</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>512053466.8672455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1652458170.574601</v>
+        <v>1566375776.776463</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1132984087648481</v>
+        <v>0.1016593801194823</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03812001494609661</v>
+        <v>0.02568754340637628</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>826229185.1817232</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2930335156.111473</v>
+        <v>2578678532.511592</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1546461893662112</v>
+        <v>0.1982799038850308</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06036595069082298</v>
+        <v>0.03860535283022301</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>74</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1465167579.627341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1512215825.849483</v>
+        <v>1422415948.820048</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07674287363825918</v>
+        <v>0.1032553175232594</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02818729621379532</v>
+        <v>0.02085809129528293</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>756107866.8100713</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1081887483.939641</v>
+        <v>993569006.3407341</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1148613681692356</v>
+        <v>0.07531032374920486</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03166220304146362</v>
+        <v>0.02945901690361018</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>540943742.5786692</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3170075721.668244</v>
+        <v>2987247820.963954</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1257313586773829</v>
+        <v>0.1300583294269796</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02213534899780106</v>
+        <v>0.02674674402385773</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>60</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1585037829.117837</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2298301970.217359</v>
+        <v>2668247902.3361</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09990584052484572</v>
+        <v>0.07682631098247518</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03645074793072368</v>
+        <v>0.03773260611757873</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1149151053.448905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2200316308.256695</v>
+        <v>2046865321.065839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09320095717272726</v>
+        <v>0.1132821859638748</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03909741803180695</v>
+        <v>0.03830845163959174</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1100158104.44979</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1773883799.296821</v>
+        <v>2154072866.911721</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1676585158911005</v>
+        <v>0.1220088985798483</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02492301360997753</v>
+        <v>0.0288157404672979</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>886941928.4873143</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1268081789.570183</v>
+        <v>1355857648.422705</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1505551913494554</v>
+        <v>0.162165080016732</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06026942359962738</v>
+        <v>0.04284205342228373</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>634040919.0306944</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2153937649.182573</v>
+        <v>2084192569.52041</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1258978166019044</v>
+        <v>0.1165080521155519</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02912840571661919</v>
+        <v>0.03125911609462748</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1076968883.719771</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3192877272.541488</v>
+        <v>3683771419.832446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1110737929027878</v>
+        <v>0.0969706812867217</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04465759125996681</v>
+        <v>0.03592341701617314</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1596438609.99909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3047007859.194074</v>
+        <v>3015325261.307178</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1603427650468505</v>
+        <v>0.1560423906306549</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01609521661126841</v>
+        <v>0.02039031525374727</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>84</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1523503923.255178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1692828371.323176</v>
+        <v>2001156852.249782</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06915078521138311</v>
+        <v>0.09246164209178021</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02923472627649327</v>
+        <v>0.02265450338872271</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>846414230.7106714</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2522317996.772742</v>
+        <v>2145899646.048966</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1936659946142587</v>
+        <v>0.1268513623585517</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0415913882424648</v>
+        <v>0.0478831660694945</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1261159041.86015</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3842125207.99262</v>
+        <v>4161804999.943791</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1553463725199164</v>
+        <v>0.1222334173751211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04379389262526437</v>
+        <v>0.0507084294947203</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>87</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1921062564.491758</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3706171332.487444</v>
+        <v>3531376210.19651</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1894303944833353</v>
+        <v>0.1724412928929173</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03833429713689081</v>
+        <v>0.05908275249747946</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>66</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1853085648.704969</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3249076680.096097</v>
+        <v>2942232316.67682</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08325663547770838</v>
+        <v>0.1046892716400228</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02967893901805008</v>
+        <v>0.03755640608242041</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1624538418.033684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1419290268.28442</v>
+        <v>1620367365.738222</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1451479669021452</v>
+        <v>0.1330219198031484</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02983590629825511</v>
+        <v>0.0371824289227965</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>709645178.7072467</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3869652208.537951</v>
+        <v>3869268287.47256</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1318234527941798</v>
+        <v>0.166808155443521</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03232220759495894</v>
+        <v>0.03359831308542426</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>83</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1934826102.208198</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>985575150.544979</v>
+        <v>1377702096.027778</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1718445017723456</v>
+        <v>0.1540291917289153</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05113273357105896</v>
+        <v>0.0499759709870899</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>492787661.5546991</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4967158349.240395</v>
+        <v>4394503864.593229</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1188755595927958</v>
+        <v>0.1257261653217069</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05425295328013161</v>
+        <v>0.05974016639955634</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>101</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2483579174.16265</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2530829898.695446</v>
+        <v>2337887375.472463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1277681230724184</v>
+        <v>0.179762975465716</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02570862804209039</v>
+        <v>0.02364093205876003</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>70</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1265415014.183561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3802084711.193406</v>
+        <v>4340489315.362465</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1321405802753804</v>
+        <v>0.1621729461970497</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04385350279988474</v>
+        <v>0.04415297513169546</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1901042404.130542</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3637738649.304361</v>
+        <v>4847004076.766095</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1885631053043287</v>
+        <v>0.1706268136117445</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02322254625148987</v>
+        <v>0.0232448360010113</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>71</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1818869283.552837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1787323988.395287</v>
+        <v>1815901221.800124</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1571661027724331</v>
+        <v>0.1233607228116197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0398868004533446</v>
+        <v>0.05579614266680462</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>893661993.8843217</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4200780971.815761</v>
+        <v>4134593557.54014</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1702147092465162</v>
+        <v>0.1840992159633806</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02025842824746755</v>
+        <v>0.02008754374662593</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>78</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2100390591.128483</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1279651643.063944</v>
+        <v>1491815819.29993</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1791855296628189</v>
+        <v>0.1416405874507574</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03781732148932958</v>
+        <v>0.02528628613956851</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>639825872.7586567</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5065215669.497552</v>
+        <v>4110239961.223007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1176800620505029</v>
+        <v>0.1156201240260073</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04163361457017147</v>
+        <v>0.03162091283177005</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2532607759.315124</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2553243010.910391</v>
+        <v>2552498796.72875</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1831280122290954</v>
+        <v>0.1335628397908867</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02563688992415966</v>
+        <v>0.02363324386130802</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1276621528.934361</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2995486868.198635</v>
+        <v>2681379449.685705</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1126232413863067</v>
+        <v>0.1138631858553221</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0210386515509511</v>
+        <v>0.0208963491972495</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>84</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1497743414.983964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1954525621.625195</v>
+        <v>1448516225.762614</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1470533594884973</v>
+        <v>0.1276915145773341</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04133886418344133</v>
+        <v>0.03814447219862699</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>977262862.0194955</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3591650930.36991</v>
+        <v>5202821152.345871</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06553549136823895</v>
+        <v>0.07566240353805843</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04361047563727288</v>
+        <v>0.03868017533060944</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1795825545.774126</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3685437551.64518</v>
+        <v>3815165567.208071</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1850826127377139</v>
+        <v>0.1673088155042752</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02750625334447395</v>
+        <v>0.03146877991048364</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>76</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1842718789.541458</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4329491626.390792</v>
+        <v>5519605285.820205</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1602639439435464</v>
+        <v>0.1095990713078585</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02805370960908352</v>
+        <v>0.02592910123846953</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>88</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2164745812.110706</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3549981059.376046</v>
+        <v>5062595695.479933</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1516991497940795</v>
+        <v>0.100041448824272</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03617708231819051</v>
+        <v>0.04858457654299259</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>71</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1774990479.177024</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2967850043.869971</v>
+        <v>3096092984.150767</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06896543812859518</v>
+        <v>0.08179060356539854</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03592786816999938</v>
+        <v>0.04182015152989822</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>79</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1483925042.916592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4017507506.668999</v>
+        <v>4635886359.437381</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1011403127789497</v>
+        <v>0.1021705171164058</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03385878560330825</v>
+        <v>0.03293417543992137</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2008753750.174758</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2345599668.843112</v>
+        <v>1972001369.775879</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1701906931266882</v>
+        <v>0.182804605812684</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05418239899862493</v>
+        <v>0.04681498050149127</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1172799884.081389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2463768108.121306</v>
+        <v>3307191893.218536</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06458267743400052</v>
+        <v>0.0921707902622198</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04367509137227629</v>
+        <v>0.04004156446177268</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>70</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1231883996.101938</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5174518127.7634</v>
+        <v>4192011381.545792</v>
       </c>
       <c r="F71" t="n">
-        <v>0.141617699358348</v>
+        <v>0.1484175876273322</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02984584691556258</v>
+        <v>0.03201141897529926</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>90</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2587259182.593917</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2193303819.77658</v>
+        <v>1712011181.170981</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07425154880744374</v>
+        <v>0.09890670514867195</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04129241267308384</v>
+        <v>0.04094187802112648</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1096651825.014916</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3102401016.896023</v>
+        <v>2240705732.458343</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1030558371710065</v>
+        <v>0.1030596254805938</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04456797538021556</v>
+        <v>0.03888324519170515</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1551200495.041532</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3542095164.385844</v>
+        <v>3472064539.806178</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1214400908010708</v>
+        <v>0.1576141607478505</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02581020564306956</v>
+        <v>0.02970171735303149</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>83</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1771047600.739053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2007678481.099113</v>
+        <v>1547026939.36088</v>
       </c>
       <c r="F75" t="n">
-        <v>0.150494576750983</v>
+        <v>0.1626905523031337</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03121704720937579</v>
+        <v>0.03271542353701797</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1003839204.066316</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3513527920.744818</v>
+        <v>3712826239.954081</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1030211178429187</v>
+        <v>0.1155043035235311</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02346859667161371</v>
+        <v>0.02816736799363828</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>60</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1756763924.650886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2179695309.740361</v>
+        <v>2055961749.41334</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1332209161278356</v>
+        <v>0.1286553208475766</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02863473661436524</v>
+        <v>0.02167844184431822</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1089847742.887518</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3838732558.152509</v>
+        <v>4417857714.872802</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1027735558389477</v>
+        <v>0.09930317856034876</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04788710685623201</v>
+        <v>0.04822905980034461</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>85</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1919366256.335901</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1545677151.05056</v>
+        <v>1605830337.358356</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1764217278881692</v>
+        <v>0.1143611913722576</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03297385406199024</v>
+        <v>0.02823709860301265</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>772838617.7112253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4759447036.755754</v>
+        <v>3840272249.2816</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08571691836233707</v>
+        <v>0.08908677991171671</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03436961110883243</v>
+        <v>0.03459840323845545</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>51</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2379723555.603932</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3405213321.052926</v>
+        <v>4665317599.721355</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08975432238894131</v>
+        <v>0.1293560966280142</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01994800677894731</v>
+        <v>0.02090937961013765</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1702606601.659611</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3953502544.654183</v>
+        <v>3787212711.666681</v>
       </c>
       <c r="F82" t="n">
-        <v>0.167421784394652</v>
+        <v>0.1596539760412489</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02578947351948399</v>
+        <v>0.01825994488984696</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1976751314.685818</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2106718894.022207</v>
+        <v>1768100854.915313</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1211328981992992</v>
+        <v>0.1336756906267662</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03535250755279003</v>
+        <v>0.03635959772268536</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1053359445.556576</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2499111552.036905</v>
+        <v>1711774593.822252</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09059776918838983</v>
+        <v>0.1064348074242025</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03419997465618892</v>
+        <v>0.03157841793024715</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1249555707.928246</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2399217796.319549</v>
+        <v>2271008791.797636</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1340934095279419</v>
+        <v>0.1407629726566807</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03754497267487609</v>
+        <v>0.04412276462218945</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>92</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1199608891.993535</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1738079036.885805</v>
+        <v>2005043204.094545</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1162886923436314</v>
+        <v>0.1255153434197375</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02602483400619154</v>
+        <v>0.02190614145207256</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>869039509.6154625</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1447408559.838011</v>
+        <v>1470417932.875823</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1839873350329432</v>
+        <v>0.1226303987451132</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04055812463858845</v>
+        <v>0.03136640629947388</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>723704398.9007884</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3426780702.205694</v>
+        <v>2494707747.402499</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1100786832584088</v>
+        <v>0.1510695837986602</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03462813470791878</v>
+        <v>0.03287183152540998</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>96</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1713390423.725169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3191784761.100425</v>
+        <v>2204773917.998446</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1555526612805964</v>
+        <v>0.1132646784784399</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03902685157720232</v>
+        <v>0.02565324539450822</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1595892404.604064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1640646964.463118</v>
+        <v>1845676629.483878</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1055998065534993</v>
+        <v>0.1125748183439143</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0525082248535504</v>
+        <v>0.04256622147627412</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>820323486.6927743</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1502166796.734031</v>
+        <v>1632221073.026257</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1355326555231054</v>
+        <v>0.159780552251393</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04209433926500124</v>
+        <v>0.05208692496576981</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>751083436.9743246</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1995220767.236183</v>
+        <v>2165339961.672347</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07926215707893391</v>
+        <v>0.08215057271356856</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04193723966321648</v>
+        <v>0.04097430925958183</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>63</v>
-      </c>
-      <c r="J92" t="n">
-        <v>997610329.4671524</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3961548736.217486</v>
+        <v>4012975845.247644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1341934922097957</v>
+        <v>0.1105200629745387</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04481488106697649</v>
+        <v>0.04467084928481797</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>73</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1980774371.220318</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1811583171.13273</v>
+        <v>2406593599.332107</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1303895402238693</v>
+        <v>0.123129154902581</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03849458524898308</v>
+        <v>0.02664590327307042</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>905791559.4345864</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2054195665.361188</v>
+        <v>2451302830.398134</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1385678260963527</v>
+        <v>0.1010205973916009</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04971733680146744</v>
+        <v>0.04001341579316585</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>59</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1027097901.173581</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2146766984.066391</v>
+        <v>1496917124.736952</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1259210723010473</v>
+        <v>0.1084480438880254</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04698860791719627</v>
+        <v>0.03513266792029485</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1073383463.34159</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4762955587.30321</v>
+        <v>4901383161.202003</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1458472712609888</v>
+        <v>0.1517047377410028</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02692987563412007</v>
+        <v>0.02293026427360613</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2381477911.370243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2403639265.057363</v>
+        <v>3609845072.953669</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1139070985871265</v>
+        <v>0.09722259818294063</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02258564036229733</v>
+        <v>0.02306068351588503</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1201819576.749417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2600458859.002182</v>
+        <v>2983205418.725942</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1107931662019062</v>
+        <v>0.140923888568184</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02792534433434432</v>
+        <v>0.02208148108518974</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1300229386.501564</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4265180176.151306</v>
+        <v>3949256675.156566</v>
       </c>
       <c r="F100" t="n">
-        <v>0.14753719643479</v>
+        <v>0.1248672961057879</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01696856254679784</v>
+        <v>0.02741164762469681</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>75</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2132590179.91102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2568043124.347219</v>
+        <v>2781070382.831516</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1740677661865513</v>
+        <v>0.1765166249462077</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05293483353973316</v>
+        <v>0.04361396678017728</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>99</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1284021594.110872</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_244.xlsx
+++ b/output/fit_clients/fit_round_244.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2423664437.820965</v>
+        <v>2250062977.667941</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09572746346728132</v>
+        <v>0.07846451704247266</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04393953754665477</v>
+        <v>0.04259306160955035</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2140519615.875132</v>
+        <v>2599367937.973683</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1361384678631086</v>
+        <v>0.142066301671737</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04088755872453188</v>
+        <v>0.03477046845982167</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4898565081.785114</v>
+        <v>3546702618.571626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.124003870587726</v>
+        <v>0.1172639807783359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03417813656540672</v>
+        <v>0.02535798475640449</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3086091206.150919</v>
+        <v>4030737853.433739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07866191363172322</v>
+        <v>0.06931518207817394</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05051290274104276</v>
+        <v>0.04532998838495189</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2336289257.290827</v>
+        <v>2302381604.316663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1205549341044882</v>
+        <v>0.09096237760274782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05428843220954033</v>
+        <v>0.03413559939289662</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2549288953.69792</v>
+        <v>1977002749.446518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08159879410732482</v>
+        <v>0.09276576883724162</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04164078452616926</v>
+        <v>0.03983649465720877</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3548814954.37737</v>
+        <v>3012073252.611772</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1790062718249877</v>
+        <v>0.1655592550003457</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02815071501770386</v>
+        <v>0.02570994507188763</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2052723945.13825</v>
+        <v>2076001725.126299</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1946987052620417</v>
+        <v>0.1736454565552382</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02850192247679254</v>
+        <v>0.03426054976909184</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4535517851.623808</v>
+        <v>5209512092.327107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1479017980796917</v>
+        <v>0.1683978960406377</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0419630824610894</v>
+        <v>0.03714414067742292</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3973920130.063491</v>
+        <v>2577769185.283882</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1820372988280636</v>
+        <v>0.1487136928626022</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03063490470580161</v>
+        <v>0.04619588308795813</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2628248343.311785</v>
+        <v>3267206248.013827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1303722611360231</v>
+        <v>0.1687806842854392</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0366543495179756</v>
+        <v>0.05379570965731274</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4823529707.3708</v>
+        <v>4379317377.856503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08431367534225123</v>
+        <v>0.09537237352944945</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01957521965821732</v>
+        <v>0.02611532202267785</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3222990899.793573</v>
+        <v>2937189718.699969</v>
       </c>
       <c r="F14" t="n">
-        <v>0.147822979380145</v>
+        <v>0.1323207391318146</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03294995905582764</v>
+        <v>0.03318254145598696</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1667799309.929758</v>
+        <v>1204342723.364992</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08970254809896556</v>
+        <v>0.07176414851460838</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04415134939683608</v>
+        <v>0.03501191164889697</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1971641545.682744</v>
+        <v>2817798873.070037</v>
       </c>
       <c r="F16" t="n">
-        <v>0.115090635348514</v>
+        <v>0.07809842820754176</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04231066244037639</v>
+        <v>0.0506793749158187</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3399475510.927947</v>
+        <v>4698717127.25208</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1647373298553439</v>
+        <v>0.139361628790942</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04588975573339115</v>
+        <v>0.05045330459166639</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3905572642.830982</v>
+        <v>3672352879.085249</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1540377021586699</v>
+        <v>0.1480815608612148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02964490578141123</v>
+        <v>0.02785958936845639</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>840385785.313019</v>
+        <v>1318733661.129309</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1725326935027191</v>
+        <v>0.1200332855049271</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01823750334504209</v>
+        <v>0.02737543230301745</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2742403971.088599</v>
+        <v>2028592410.118064</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1571359721236084</v>
+        <v>0.1250160033960889</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0293317438800003</v>
+        <v>0.02984494680427299</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1829101260.960017</v>
+        <v>2516396849.342554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08327989557416975</v>
+        <v>0.07407901356232874</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04251537214516873</v>
+        <v>0.02941043883389598</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3625115373.637838</v>
+        <v>3809750352.457032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1435749650685897</v>
+        <v>0.08958885032323657</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0497105870251499</v>
+        <v>0.0451234736854769</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1158496029.544045</v>
+        <v>1306572425.252466</v>
       </c>
       <c r="F23" t="n">
-        <v>0.181209398121213</v>
+        <v>0.138016328581287</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03847005116272744</v>
+        <v>0.04336557509835141</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2763414373.3792</v>
+        <v>3108388266.345194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1357385733752678</v>
+        <v>0.1169900786292636</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02336979562662513</v>
+        <v>0.036804144754547</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>954215660.5588238</v>
+        <v>1054012834.93458</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07946585704822653</v>
+        <v>0.09498723536717536</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02300432302363922</v>
+        <v>0.03048111946573079</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1390327555.004723</v>
+        <v>1111125458.361308</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08972193282778285</v>
+        <v>0.08156573733184319</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02747961303989997</v>
+        <v>0.03077570615000296</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3691402641.351541</v>
+        <v>4272862450.091709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.102978067270103</v>
+        <v>0.1560492063096757</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02055587047599049</v>
+        <v>0.02331397642962392</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3501130909.719435</v>
+        <v>3279055875.098841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0979618653965854</v>
+        <v>0.1152941752602326</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03463973939670205</v>
+        <v>0.05010074916526465</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5734619603.048615</v>
+        <v>3816332598.482063</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1217942336574638</v>
+        <v>0.1161596705952475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04362382134011501</v>
+        <v>0.04286637828062368</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1524395826.058035</v>
+        <v>1850184091.20875</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1026726593755304</v>
+        <v>0.1088670297830383</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03491879116167435</v>
+        <v>0.02472802212099227</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1226267958.037124</v>
+        <v>1048044170.048031</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08801318573191712</v>
+        <v>0.07293022484505123</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03373753702860381</v>
+        <v>0.0369696173899897</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1566375776.776463</v>
+        <v>1398294840.784048</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1016593801194823</v>
+        <v>0.111135708352946</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02568754340637628</v>
+        <v>0.02927427413107172</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2578678532.511592</v>
+        <v>1897039687.49006</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1982799038850308</v>
+        <v>0.1658170003075801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03860535283022301</v>
+        <v>0.06031076712458815</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1422415948.820048</v>
+        <v>1027230201.240444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1032553175232594</v>
+        <v>0.1215643455646305</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02085809129528293</v>
+        <v>0.02153243159047324</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>993569006.3407341</v>
+        <v>1363312048.308499</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07531032374920486</v>
+        <v>0.09947484870083391</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02945901690361018</v>
+        <v>0.03065647162336712</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2987247820.963954</v>
+        <v>3154342175.5985</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1300583294269796</v>
+        <v>0.1694159260809615</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02674674402385773</v>
+        <v>0.02587556965887982</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2668247902.3361</v>
+        <v>2151334746.662696</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07682631098247518</v>
+        <v>0.07034986786842916</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03773260611757873</v>
+        <v>0.0379540230739372</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2046865321.065839</v>
+        <v>1663026606.172577</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1132821859638748</v>
+        <v>0.09677376244579515</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03830845163959174</v>
+        <v>0.027566805477377</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2154072866.911721</v>
+        <v>1794851050.294387</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1220088985798483</v>
+        <v>0.1460318665555579</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0288157404672979</v>
+        <v>0.02408604256202383</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1355857648.422705</v>
+        <v>1384289710.524334</v>
       </c>
       <c r="F40" t="n">
-        <v>0.162165080016732</v>
+        <v>0.1343553169902706</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04284205342228373</v>
+        <v>0.04140366724392653</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2084192569.52041</v>
+        <v>2929371663.497694</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1165080521155519</v>
+        <v>0.1331929240169184</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03125911609462748</v>
+        <v>0.04733720037066123</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3683771419.832446</v>
+        <v>3806827558.28062</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0969706812867217</v>
+        <v>0.08054286645984891</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03592341701617314</v>
+        <v>0.04603359742745325</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3015325261.307178</v>
+        <v>2415813975.714176</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1560423906306549</v>
+        <v>0.1654411410171978</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02039031525374727</v>
+        <v>0.02588408955178642</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2001156852.249782</v>
+        <v>1624336514.254588</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09246164209178021</v>
+        <v>0.09324065766817302</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02265450338872271</v>
+        <v>0.02964114249448702</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2145899646.048966</v>
+        <v>2365804510.063046</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1268513623585517</v>
+        <v>0.1897673798149799</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0478831660694945</v>
+        <v>0.04608431171599187</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4161804999.943791</v>
+        <v>3533397390.572578</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1222334173751211</v>
+        <v>0.1729102813216301</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0507084294947203</v>
+        <v>0.05434897854734765</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3531376210.19651</v>
+        <v>4811894545.490749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1724412928929173</v>
+        <v>0.1883468128385456</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05908275249747946</v>
+        <v>0.05650998517199197</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2942232316.67682</v>
+        <v>4327266768.788286</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046892716400228</v>
+        <v>0.09158554639840749</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03755640608242041</v>
+        <v>0.03832269025692812</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1620367365.738222</v>
+        <v>1292061599.563401</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1330219198031484</v>
+        <v>0.149264811522236</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0371824289227965</v>
+        <v>0.03935283718618113</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3869268287.47256</v>
+        <v>3640795780.723086</v>
       </c>
       <c r="F50" t="n">
-        <v>0.166808155443521</v>
+        <v>0.1092300883978095</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03359831308542426</v>
+        <v>0.03702930971188158</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1377702096.027778</v>
+        <v>1271376790.415653</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1540291917289153</v>
+        <v>0.1693301586586061</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0499759709870899</v>
+        <v>0.03779782733952067</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4394503864.593229</v>
+        <v>5160804346.136579</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1257261653217069</v>
+        <v>0.08590759068348093</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05974016639955634</v>
+        <v>0.04837030069231806</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2337887375.472463</v>
+        <v>3333913115.591142</v>
       </c>
       <c r="F53" t="n">
-        <v>0.179762975465716</v>
+        <v>0.1698895547479081</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02364093205876003</v>
+        <v>0.02481899547570917</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4340489315.362465</v>
+        <v>3289824438.375498</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1621729461970497</v>
+        <v>0.1231962485674737</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04415297513169546</v>
+        <v>0.05145793631541998</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4847004076.766095</v>
+        <v>4742475098.045727</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1706268136117445</v>
+        <v>0.1429214700402117</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0232448360010113</v>
+        <v>0.02728830786791143</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1815901221.800124</v>
+        <v>1398770104.556663</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1233607228116197</v>
+        <v>0.1130215557422976</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05579614266680462</v>
+        <v>0.03556901611272278</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4134593557.54014</v>
+        <v>3684530205.128268</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1840992159633806</v>
+        <v>0.1332730831288341</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02008754374662593</v>
+        <v>0.02587988704490373</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1491815819.29993</v>
+        <v>1594393004.484803</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1416405874507574</v>
+        <v>0.1636511309931758</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02528628613956851</v>
+        <v>0.02815129288752515</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4110239961.223007</v>
+        <v>3287414445.203339</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1156201240260073</v>
+        <v>0.1194870022459043</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03162091283177005</v>
+        <v>0.04892384457895229</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2552498796.72875</v>
+        <v>3647406609.757398</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1335628397908867</v>
+        <v>0.1720221565846113</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02363324386130802</v>
+        <v>0.02805461269075941</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2681379449.685705</v>
+        <v>2221800943.666751</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1138631858553221</v>
+        <v>0.1119108461243007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0208963491972495</v>
+        <v>0.02775950017816888</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1448516225.762614</v>
+        <v>1856846961.310681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1276915145773341</v>
+        <v>0.1762591227133193</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03814447219862699</v>
+        <v>0.03691769341764078</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5202821152.345871</v>
+        <v>3633560806.533134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07566240353805843</v>
+        <v>0.08319313170900505</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03868017533060944</v>
+        <v>0.04495998383050285</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3815165567.208071</v>
+        <v>4229408481.012664</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1673088155042752</v>
+        <v>0.1892689131040162</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03146877991048364</v>
+        <v>0.03406730338863746</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5519605285.820205</v>
+        <v>4611087587.962429</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1095990713078585</v>
+        <v>0.1089331249651613</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02592910123846953</v>
+        <v>0.02813372969583044</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5062595695.479933</v>
+        <v>5725344851.305654</v>
       </c>
       <c r="F66" t="n">
-        <v>0.100041448824272</v>
+        <v>0.140235507369934</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04858457654299259</v>
+        <v>0.04069507279672253</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3096092984.150767</v>
+        <v>3372555068.46988</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08179060356539854</v>
+        <v>0.08875660840387309</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04182015152989822</v>
+        <v>0.04216792223092605</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4635886359.437381</v>
+        <v>5015110833.052616</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1021705171164058</v>
+        <v>0.1326340408660107</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03293417543992137</v>
+        <v>0.03698338806703206</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1972001369.775879</v>
+        <v>2181692698.151062</v>
       </c>
       <c r="F69" t="n">
-        <v>0.182804605812684</v>
+        <v>0.1496355772648038</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04681498050149127</v>
+        <v>0.04676388525046566</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3307191893.218536</v>
+        <v>2308861898.324403</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0921707902622198</v>
+        <v>0.09000055562365007</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04004156446177268</v>
+        <v>0.03907622785357139</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4192011381.545792</v>
+        <v>4430467896.015764</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1484175876273322</v>
+        <v>0.1678281225241585</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03201141897529926</v>
+        <v>0.02704898319233299</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1712011181.170981</v>
+        <v>1876935468.50053</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09890670514867195</v>
+        <v>0.1037702037340101</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04094187802112648</v>
+        <v>0.05244912651750985</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2240705732.458343</v>
+        <v>2761722882.55964</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1030596254805938</v>
+        <v>0.1093048144460907</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03888324519170515</v>
+        <v>0.0386436672518615</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3472064539.806178</v>
+        <v>3561706589.504077</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1576141607478505</v>
+        <v>0.1471001741793745</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02970171735303149</v>
+        <v>0.02663449840497803</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1547026939.36088</v>
+        <v>2054066820.980651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1626905523031337</v>
+        <v>0.1370332616490547</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03271542353701797</v>
+        <v>0.03169433943466997</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3712826239.954081</v>
+        <v>3345183489.976566</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1155043035235311</v>
+        <v>0.0845914085007967</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02816736799363828</v>
+        <v>0.0211061908290949</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2055961749.41334</v>
+        <v>1422430039.626037</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1286553208475766</v>
+        <v>0.1479154521505035</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02167844184431822</v>
+        <v>0.02027996481473962</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4417857714.872802</v>
+        <v>4171657836.377483</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09930317856034876</v>
+        <v>0.09429996660287435</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04822905980034461</v>
+        <v>0.05253913597397263</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1605830337.358356</v>
+        <v>1576529855.864412</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1143611913722576</v>
+        <v>0.1475291414756836</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02823709860301265</v>
+        <v>0.03690209424941489</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3840272249.2816</v>
+        <v>4426834776.238806</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08908677991171671</v>
+        <v>0.07599915662591954</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03459840323845545</v>
+        <v>0.03368831103038657</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4665317599.721355</v>
+        <v>3914357279.177026</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1293560966280142</v>
+        <v>0.1242766353978292</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02090937961013765</v>
+        <v>0.02454874079246143</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3787212711.666681</v>
+        <v>4402885636.633698</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1596539760412489</v>
+        <v>0.2079910708322192</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01825994488984696</v>
+        <v>0.02392041157507373</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1768100854.915313</v>
+        <v>2077115241.148474</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1336756906267662</v>
+        <v>0.1051990436834211</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03635959772268536</v>
+        <v>0.04005047106115281</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1711774593.822252</v>
+        <v>2502266681.099258</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1064348074242025</v>
+        <v>0.1012997015192913</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03157841793024715</v>
+        <v>0.03612930593900307</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2271008791.797636</v>
+        <v>2431625487.168284</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1407629726566807</v>
+        <v>0.1843943609257573</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04412276462218945</v>
+        <v>0.03418250970810186</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2005043204.094545</v>
+        <v>1776372015.763795</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1255153434197375</v>
+        <v>0.1222045429116396</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02190614145207256</v>
+        <v>0.01683852316989934</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1470417932.875823</v>
+        <v>943052333.005138</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1226303987451132</v>
+        <v>0.1568705973724532</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03136640629947388</v>
+        <v>0.02943894368466174</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2494707747.402499</v>
+        <v>3625917666.309313</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1510695837986602</v>
+        <v>0.1621079492970559</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03287183152540998</v>
+        <v>0.02704199653933483</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2204773917.998446</v>
+        <v>2968128032.015373</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1132646784784399</v>
+        <v>0.128854380989188</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02565324539450822</v>
+        <v>0.02532915057581061</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1845676629.483878</v>
+        <v>1645511153.702384</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1125748183439143</v>
+        <v>0.1218088500733348</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04256622147627412</v>
+        <v>0.04834682346209766</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1632221073.026257</v>
+        <v>1854594079.333771</v>
       </c>
       <c r="F91" t="n">
-        <v>0.159780552251393</v>
+        <v>0.1867167381669152</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05208692496576981</v>
+        <v>0.03919736104886845</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2165339961.672347</v>
+        <v>2670743437.80848</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08215057271356856</v>
+        <v>0.0978645258879015</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04097430925958183</v>
+        <v>0.03947907769547219</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4012975845.247644</v>
+        <v>4100339045.46507</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1105200629745387</v>
+        <v>0.1107411884141226</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04467084928481797</v>
+        <v>0.03435081870215241</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2406593599.332107</v>
+        <v>2396029889.404335</v>
       </c>
       <c r="F94" t="n">
-        <v>0.123129154902581</v>
+        <v>0.1394380597424188</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02664590327307042</v>
+        <v>0.04322792587857034</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2451302830.398134</v>
+        <v>3104011403.123149</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1010205973916009</v>
+        <v>0.1198849867085322</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04001341579316585</v>
+        <v>0.04243266048537025</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1496917124.736952</v>
+        <v>1582148439.823668</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1084480438880254</v>
+        <v>0.08576439785620314</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03513266792029485</v>
+        <v>0.04068738598227986</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4901383161.202003</v>
+        <v>4111658101.77527</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1517047377410028</v>
+        <v>0.1146752329619017</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02293026427360613</v>
+        <v>0.02428699141594639</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3609845072.953669</v>
+        <v>3897044599.814808</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09722259818294063</v>
+        <v>0.1076392475968621</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02306068351588503</v>
+        <v>0.02950095165872519</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2983205418.725942</v>
+        <v>3109412662.527565</v>
       </c>
       <c r="F99" t="n">
-        <v>0.140923888568184</v>
+        <v>0.1087078815500607</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02208148108518974</v>
+        <v>0.02534482258527141</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3949256675.156566</v>
+        <v>4442970493.656153</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1248672961057879</v>
+        <v>0.1213439667502886</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02741164762469681</v>
+        <v>0.02656126562662281</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2781070382.831516</v>
+        <v>2405884323.322487</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1765166249462077</v>
+        <v>0.166753479141163</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04361396678017728</v>
+        <v>0.04607625521566595</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_244.xlsx
+++ b/output/fit_clients/fit_round_244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2250062977.667941</v>
+        <v>1686037084.577861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07846451704247266</v>
+        <v>0.104813858600681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04259306160955035</v>
+        <v>0.03170618832866698</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2599367937.973683</v>
+        <v>2457049609.117943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.142066301671737</v>
+        <v>0.1354121213276242</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03477046845982167</v>
+        <v>0.0459705940619503</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3546702618.571626</v>
+        <v>5007684180.575172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1172639807783359</v>
+        <v>0.1204718389127725</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02535798475640449</v>
+        <v>0.03539759021578701</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>132</v>
+      </c>
+      <c r="J4" t="n">
+        <v>243</v>
+      </c>
+      <c r="K4" t="n">
+        <v>102.4460080679373</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4030737853.433739</v>
+        <v>3988431548.277383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06931518207817394</v>
+        <v>0.07560809782148528</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04532998838495189</v>
+        <v>0.04349841792035467</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>244</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2302381604.316663</v>
+        <v>1842207672.230943</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09096237760274782</v>
+        <v>0.1039497434516472</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03413559939289662</v>
+        <v>0.05283108966535446</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1977002749.446518</v>
+        <v>2798772265.596904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09276576883724162</v>
+        <v>0.06310374822754419</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03983649465720877</v>
+        <v>0.03966722718576772</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3012073252.611772</v>
+        <v>3875737491.590507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1655592550003457</v>
+        <v>0.2091810596612191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02570994507188763</v>
+        <v>0.03037572253659781</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2076001725.126299</v>
+        <v>1990762545.514129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1736454565552382</v>
+        <v>0.1971449800673361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03426054976909184</v>
+        <v>0.02372416184932817</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5209512092.327107</v>
+        <v>3573461216.278404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1683978960406377</v>
+        <v>0.2124022267608666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03714414067742292</v>
+        <v>0.0406714410298027</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>223</v>
+      </c>
+      <c r="J10" t="n">
+        <v>243</v>
+      </c>
+      <c r="K10" t="n">
+        <v>98.12095169846772</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2577769185.283882</v>
+        <v>3603141602.113527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1487136928626022</v>
+        <v>0.1767525397550396</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04619588308795813</v>
+        <v>0.04403725799485439</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>101</v>
+      </c>
+      <c r="J11" t="n">
+        <v>242</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3267206248.013827</v>
+        <v>2389417641.902225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1687806842854392</v>
+        <v>0.1715282370118693</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05379570965731274</v>
+        <v>0.03810757410391531</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4379317377.856503</v>
+        <v>4427131892.380027</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09537237352944945</v>
+        <v>0.09765458673960553</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02611532202267785</v>
+        <v>0.02996130902923116</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>123</v>
+      </c>
+      <c r="J13" t="n">
+        <v>244</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2937189718.699969</v>
+        <v>2729047724.104169</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1323207391318146</v>
+        <v>0.1327866512070683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03318254145598696</v>
+        <v>0.04271658206911198</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>243</v>
+      </c>
+      <c r="K14" t="n">
+        <v>57.95095857278392</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1204342723.364992</v>
+        <v>1538396099.756701</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07176414851460838</v>
+        <v>0.08545282153833623</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03501191164889697</v>
+        <v>0.03740842417107176</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2817798873.070037</v>
+        <v>1775237397.094233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07809842820754176</v>
+        <v>0.1001210669192737</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0506793749158187</v>
+        <v>0.04954447717913529</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4698717127.25208</v>
+        <v>4395592601.348508</v>
       </c>
       <c r="F17" t="n">
-        <v>0.139361628790942</v>
+        <v>0.1721365517138188</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05045330459166639</v>
+        <v>0.04441726715542459</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>117</v>
+      </c>
+      <c r="J17" t="n">
+        <v>244</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3672352879.085249</v>
+        <v>3644206330.490427</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1480815608612148</v>
+        <v>0.1307628877797257</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02785958936845639</v>
+        <v>0.03049029839830535</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>60</v>
+      </c>
+      <c r="J18" t="n">
+        <v>244</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1318733661.129309</v>
+        <v>1144552970.240559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1200332855049271</v>
+        <v>0.1359091369306151</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02737543230301745</v>
+        <v>0.02183516831083895</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2028592410.118064</v>
+        <v>1801088002.126616</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1250160033960889</v>
+        <v>0.1608235614448003</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02984494680427299</v>
+        <v>0.02757347109925199</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2516396849.342554</v>
+        <v>2089780181.537398</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07407901356232874</v>
+        <v>0.07204915723899341</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02941043883389598</v>
+        <v>0.03816421737363694</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3809750352.457032</v>
+        <v>3058565849.874725</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08958885032323657</v>
+        <v>0.1158695319924648</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0451234736854769</v>
+        <v>0.03540749391328426</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>63</v>
+      </c>
+      <c r="J22" t="n">
+        <v>243</v>
+      </c>
+      <c r="K22" t="n">
+        <v>63.9181484771243</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1306572425.252466</v>
+        <v>1007793327.892142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.138016328581287</v>
+        <v>0.1704442631907078</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04336557509835141</v>
+        <v>0.05039198156246472</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3108388266.345194</v>
+        <v>2631134327.384202</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1169900786292636</v>
+        <v>0.1101423476260093</v>
       </c>
       <c r="G24" t="n">
-        <v>0.036804144754547</v>
+        <v>0.0290717894206699</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1054012834.93458</v>
+        <v>1184789666.231201</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09498723536717536</v>
+        <v>0.07600676298961311</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03048111946573079</v>
+        <v>0.02091995264415704</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1111125458.361308</v>
+        <v>1185279498.606331</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08156573733184319</v>
+        <v>0.07507254104411253</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03077570615000296</v>
+        <v>0.03734927323797898</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4272862450.091709</v>
+        <v>2864635342.456429</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1560492063096757</v>
+        <v>0.1284843127055497</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02331397642962392</v>
+        <v>0.02238331812550144</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>99</v>
+      </c>
+      <c r="J27" t="n">
+        <v>242</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3279055875.098841</v>
+        <v>3829685419.981932</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1152941752602326</v>
+        <v>0.09602711627445508</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05010074916526465</v>
+        <v>0.03782732765586724</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3816332598.482063</v>
+        <v>5026966828.823114</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1161596705952475</v>
+        <v>0.1264561815370559</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04286637828062368</v>
+        <v>0.03181613370408321</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>232</v>
+      </c>
+      <c r="J29" t="n">
+        <v>244</v>
+      </c>
+      <c r="K29" t="n">
+        <v>113.6703804660755</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1850184091.20875</v>
+        <v>1990363315.069744</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1088670297830383</v>
+        <v>0.1325546182699152</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02472802212099227</v>
+        <v>0.0366932798281944</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1048044170.048031</v>
+        <v>1465143467.398605</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07293022484505123</v>
+        <v>0.07780640930282454</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0369696173899897</v>
+        <v>0.04902398178632577</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1398294840.784048</v>
+        <v>1793779132.049561</v>
       </c>
       <c r="F32" t="n">
-        <v>0.111135708352946</v>
+        <v>0.09143264203302268</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02927427413107172</v>
+        <v>0.03752964018918391</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1897039687.49006</v>
+        <v>2544001033.082489</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1658170003075801</v>
+        <v>0.1617023799465496</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06031076712458815</v>
+        <v>0.04283549649173089</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1027230201.240444</v>
+        <v>1229374084.337258</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1215643455646305</v>
+        <v>0.0838674444202091</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02153243159047324</v>
+        <v>0.0234369183343417</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1363312048.308499</v>
+        <v>951682341.4260581</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09947484870083391</v>
+        <v>0.08627208201843345</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03065647162336712</v>
+        <v>0.03179828258154374</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3154342175.5985</v>
+        <v>2856539491.334476</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1694159260809615</v>
+        <v>0.1514155210955516</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02587556965887982</v>
+        <v>0.02356840369157065</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2151334746.662696</v>
+        <v>2152244049.575397</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07034986786842916</v>
+        <v>0.08468047081216215</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0379540230739372</v>
+        <v>0.02729973633549928</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1663026606.172577</v>
+        <v>1641754439.352009</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09677376244579515</v>
+        <v>0.1167424526540182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.027566805477377</v>
+        <v>0.03016046621944384</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1794851050.294387</v>
+        <v>1486077586.812918</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1460318665555579</v>
+        <v>0.1812070128737958</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02408604256202383</v>
+        <v>0.02157208944639346</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1384289710.524334</v>
+        <v>1311265244.431268</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1343553169902706</v>
+        <v>0.1344790952130658</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04140366724392653</v>
+        <v>0.04197301335912131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2929371663.497694</v>
+        <v>2371448141.155109</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1331929240169184</v>
+        <v>0.132033967151427</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04733720037066123</v>
+        <v>0.02939076537958126</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3806827558.28062</v>
+        <v>4266242760.991695</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08054286645984891</v>
+        <v>0.1270555195408423</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04603359742745325</v>
+        <v>0.03403768014277828</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" t="n">
+        <v>244</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2415813975.714176</v>
+        <v>1996308141.784611</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1654411410171978</v>
+        <v>0.1296232906751862</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02588408955178642</v>
+        <v>0.02269855529045667</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1624336514.254588</v>
+        <v>1549685794.349406</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09324065766817302</v>
+        <v>0.09691553211095789</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02964114249448702</v>
+        <v>0.03630673673848143</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2365804510.063046</v>
+        <v>1587733222.25255</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1897673798149799</v>
+        <v>0.1573455338010384</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04608431171599187</v>
+        <v>0.04842339843449397</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3533397390.572578</v>
+        <v>3460543399.761942</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1729102813216301</v>
+        <v>0.1375283739271115</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05434897854734765</v>
+        <v>0.0477124785098525</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>140</v>
+      </c>
+      <c r="J46" t="n">
+        <v>242</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4811894545.490749</v>
+        <v>4186835750.701913</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1883468128385456</v>
+        <v>0.1900845426075058</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05650998517199197</v>
+        <v>0.05819120052778388</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>109</v>
+      </c>
+      <c r="J47" t="n">
+        <v>244</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4327266768.788286</v>
+        <v>3304661652.853858</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09158554639840749</v>
+        <v>0.07942326401854763</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03832269025692812</v>
+        <v>0.03083825853073163</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>121</v>
+      </c>
+      <c r="J48" t="n">
+        <v>241</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1292061599.563401</v>
+        <v>1571562996.837556</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149264811522236</v>
+        <v>0.1301540830335197</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03935283718618113</v>
+        <v>0.03503141475012109</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2191,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3640795780.723086</v>
+        <v>3965700598.67206</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1092300883978095</v>
+        <v>0.1629211678564347</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03702930971188158</v>
+        <v>0.03588570993216161</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>79</v>
+      </c>
+      <c r="J50" t="n">
+        <v>244</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1271376790.415653</v>
+        <v>1401224358.061254</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1693301586586061</v>
+        <v>0.1628066235330872</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03779782733952067</v>
+        <v>0.03570343138804621</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2261,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5160804346.136579</v>
+        <v>4355726837.117605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08590759068348093</v>
+        <v>0.1128478727947222</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04837030069231806</v>
+        <v>0.05712319355454704</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>158</v>
+      </c>
+      <c r="J52" t="n">
+        <v>243</v>
+      </c>
+      <c r="K52" t="n">
+        <v>101.0580895364093</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3333913115.591142</v>
+        <v>2629799590.588117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1698895547479081</v>
+        <v>0.1931664862324661</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02481899547570917</v>
+        <v>0.02895229286686868</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2327,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3289824438.375498</v>
+        <v>3584941824.790651</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1231962485674737</v>
+        <v>0.1490650923325886</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05145793631541998</v>
+        <v>0.03462224154748239</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>129</v>
+      </c>
+      <c r="J54" t="n">
+        <v>242</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2362,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4742475098.045727</v>
+        <v>4062114302.355286</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1429214700402117</v>
+        <v>0.2097796030240412</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02728830786791143</v>
+        <v>0.0203764796210387</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>109</v>
+      </c>
+      <c r="J55" t="n">
+        <v>244</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2403,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1398770104.556663</v>
+        <v>1321000162.592333</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1130215557422976</v>
+        <v>0.1496311467930455</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03556901611272278</v>
+        <v>0.04909410763284453</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2438,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3684530205.128268</v>
+        <v>3768670238.74643</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1332730831288341</v>
+        <v>0.1847205670362418</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02587988704490373</v>
+        <v>0.02716516641152295</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>96</v>
+      </c>
+      <c r="J57" t="n">
+        <v>243</v>
+      </c>
+      <c r="K57" t="n">
+        <v>105.1497661348715</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2475,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1594393004.484803</v>
+        <v>1149086601.803957</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1636511309931758</v>
+        <v>0.1934015288097184</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02815129288752515</v>
+        <v>0.03619068284870516</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3287414445.203339</v>
+        <v>3606973799.150288</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1194870022459043</v>
+        <v>0.09435506571799408</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04892384457895229</v>
+        <v>0.03062790963516761</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>118</v>
+      </c>
+      <c r="J59" t="n">
+        <v>243</v>
+      </c>
+      <c r="K59" t="n">
+        <v>88.85404164212524</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2541,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3647406609.757398</v>
+        <v>2451369090.181404</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1720221565846113</v>
+        <v>0.1852759219687824</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02805461269075941</v>
+        <v>0.02986626201438264</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>35</v>
+      </c>
+      <c r="J60" t="n">
+        <v>243</v>
+      </c>
+      <c r="K60" t="n">
+        <v>48.47285504508836</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2221800943.666751</v>
+        <v>2925454372.682367</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1119108461243007</v>
+        <v>0.1165812771301367</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02775950017816888</v>
+        <v>0.02404637770972451</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1856846961.310681</v>
+        <v>2088176578.110619</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1762591227133193</v>
+        <v>0.1671338230823366</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03691769341764078</v>
+        <v>0.04966879503485354</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3633560806.533134</v>
+        <v>5269300122.124423</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08319313170900505</v>
+        <v>0.09663538562535585</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04495998383050285</v>
+        <v>0.03814728367666755</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>119</v>
+      </c>
+      <c r="J63" t="n">
+        <v>243</v>
+      </c>
+      <c r="K63" t="n">
+        <v>98.60194492584127</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4229408481.012664</v>
+        <v>5275452061.79946</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1892689131040162</v>
+        <v>0.170788046899576</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03406730338863746</v>
+        <v>0.03513452301966765</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>120</v>
+      </c>
+      <c r="J64" t="n">
+        <v>244</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4611087587.962429</v>
+        <v>4566902750.373287</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1089331249651613</v>
+        <v>0.1509542479551961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02813372969583044</v>
+        <v>0.02140095609786336</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>195</v>
+      </c>
+      <c r="J65" t="n">
+        <v>244</v>
+      </c>
+      <c r="K65" t="n">
+        <v>107.2835087894937</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5725344851.305654</v>
+        <v>5530276716.16035</v>
       </c>
       <c r="F66" t="n">
-        <v>0.140235507369934</v>
+        <v>0.09980424697905915</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04069507279672253</v>
+        <v>0.0386620533990234</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>120</v>
+      </c>
+      <c r="J66" t="n">
+        <v>244</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,22 +2792,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3372555068.46988</v>
+        <v>2350715034.384418</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08875660840387309</v>
+        <v>0.1009612579169599</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04216792223092605</v>
+        <v>0.04100825374979304</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="n">
+        <v>44.65437249055615</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5015110833.052616</v>
+        <v>5063676528.804006</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1326340408660107</v>
+        <v>0.0988520532075698</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03698338806703206</v>
+        <v>0.03430621269778109</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>124</v>
+      </c>
+      <c r="J68" t="n">
+        <v>243</v>
+      </c>
+      <c r="K68" t="n">
+        <v>103.1682786363212</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2181692698.151062</v>
+        <v>1762681902.828038</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1496355772648038</v>
+        <v>0.1204921092214724</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04676388525046566</v>
+        <v>0.04874225528695297</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2308861898.324403</v>
+        <v>2987706504.258356</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09000055562365007</v>
+        <v>0.07559131904617362</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03907622785357139</v>
+        <v>0.03361773778961213</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="n">
+        <v>60.4281014322182</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4430467896.015764</v>
+        <v>5565884118.621087</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1678281225241585</v>
+        <v>0.1563785091433418</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02704898319233299</v>
+        <v>0.022362378643991</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>184</v>
+      </c>
+      <c r="J71" t="n">
+        <v>244</v>
+      </c>
+      <c r="K71" t="n">
+        <v>107.2828243782212</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1876935468.50053</v>
+        <v>2034686566.365115</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1037702037340101</v>
+        <v>0.0695851837456449</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05244912651750985</v>
+        <v>0.04504469738961883</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2761722882.55964</v>
+        <v>2508498607.88289</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093048144460907</v>
+        <v>0.08718256746081064</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0386436672518615</v>
+        <v>0.03509241275338146</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>243</v>
+      </c>
+      <c r="K73" t="n">
+        <v>55.66777803475075</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3561706589.504077</v>
+        <v>3030488255.628156</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1471001741793745</v>
+        <v>0.1119768433851337</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02663449840497803</v>
+        <v>0.02809163980429473</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2054066820.980651</v>
+        <v>1839373080.620685</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1370332616490547</v>
+        <v>0.1073174424397575</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03169433943466997</v>
+        <v>0.02978142524636267</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3345183489.976566</v>
+        <v>4849936901.411155</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0845914085007967</v>
+        <v>0.1244338213984099</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0211061908290949</v>
+        <v>0.03355920339342965</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>113</v>
+      </c>
+      <c r="J76" t="n">
+        <v>244</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1422430039.626037</v>
+        <v>2145488523.563125</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1479154521505035</v>
+        <v>0.1498447886346252</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02027996481473962</v>
+        <v>0.02473117208960817</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4171657836.377483</v>
+        <v>3370468920.637967</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09429996660287435</v>
+        <v>0.1301399179693921</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05253913597397263</v>
+        <v>0.05046692659879216</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>122</v>
+      </c>
+      <c r="J78" t="n">
+        <v>243</v>
+      </c>
+      <c r="K78" t="n">
+        <v>84.11741168714492</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1576529855.864412</v>
+        <v>1276951521.690788</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1475291414756836</v>
+        <v>0.1443612601167489</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03690209424941489</v>
+        <v>0.03586076136759435</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4426834776.238806</v>
+        <v>4579104730.963907</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07599915662591954</v>
+        <v>0.07520508284862293</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03368831103038657</v>
+        <v>0.02812461350510878</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>119</v>
+      </c>
+      <c r="J80" t="n">
+        <v>243</v>
+      </c>
+      <c r="K80" t="n">
+        <v>76.17382324450274</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3914357279.177026</v>
+        <v>3163743248.375839</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1242766353978292</v>
+        <v>0.1145443774155015</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02454874079246143</v>
+        <v>0.02512696998463786</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>112</v>
+      </c>
+      <c r="J81" t="n">
+        <v>242</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4402885636.633698</v>
+        <v>3857448532.714678</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2079910708322192</v>
+        <v>0.1817554290312202</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02392041157507373</v>
+        <v>0.02528752753037669</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>184</v>
+      </c>
+      <c r="J82" t="n">
+        <v>244</v>
+      </c>
+      <c r="K82" t="n">
+        <v>107.897940892462</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2077115241.148474</v>
+        <v>1797969404.056172</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1051990436834211</v>
+        <v>0.1557858499970768</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04005047106115281</v>
+        <v>0.02914003395472473</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2502266681.099258</v>
+        <v>1892004037.006669</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1012997015192913</v>
+        <v>0.08093985207527696</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03612930593900307</v>
+        <v>0.05007619014087741</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2431625487.168284</v>
+        <v>2927277341.804342</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1843943609257573</v>
+        <v>0.1168989703658724</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03418250970810186</v>
+        <v>0.03789412066848281</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>242</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1776372015.763795</v>
+        <v>2249329573.301069</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1222045429116396</v>
+        <v>0.1317166616699984</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01683852316989934</v>
+        <v>0.01930181410951469</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>943052333.005138</v>
+        <v>1051966503.440718</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1568705973724532</v>
+        <v>0.1558352180367278</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02943894368466174</v>
+        <v>0.03275203911511698</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3625917666.309313</v>
+        <v>2584754293.464147</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1621079492970559</v>
+        <v>0.1444269534905389</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02704199653933483</v>
+        <v>0.03927538251377609</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2968128032.015373</v>
+        <v>2204015766.133712</v>
       </c>
       <c r="F89" t="n">
-        <v>0.128854380989188</v>
+        <v>0.1482243247948548</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02532915057581061</v>
+        <v>0.02619708092165339</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1645511153.702384</v>
+        <v>2141588754.672528</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1218088500733348</v>
+        <v>0.1096016937654784</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04834682346209766</v>
+        <v>0.05627468593783794</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1854594079.333771</v>
+        <v>1461747396.30484</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1867167381669152</v>
+        <v>0.122394435985348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03919736104886845</v>
+        <v>0.04740326853396743</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2670743437.80848</v>
+        <v>2359008271.013019</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0978645258879015</v>
+        <v>0.08426258138218501</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03947907769547219</v>
+        <v>0.03023122622477396</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4100339045.46507</v>
+        <v>4786887768.182611</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1107411884141226</v>
+        <v>0.1259358881179726</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03435081870215241</v>
+        <v>0.04552361752270002</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>108</v>
+      </c>
+      <c r="J93" t="n">
+        <v>244</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2396029889.404335</v>
+        <v>2024619456.442823</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1394380597424188</v>
+        <v>0.1615405264600554</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04322792587857034</v>
+        <v>0.03424719727581725</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3104011403.123149</v>
+        <v>2871318254.286925</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1198849867085322</v>
+        <v>0.09218493462599579</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04243266048537025</v>
+        <v>0.046491021317124</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1582148439.823668</v>
+        <v>1945389338.713941</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08576439785620314</v>
+        <v>0.1108823009447002</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04068738598227986</v>
+        <v>0.03564964031518382</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4111658101.77527</v>
+        <v>4163158591.374533</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1146752329619017</v>
+        <v>0.1707707102035757</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02428699141594639</v>
+        <v>0.02895081680114345</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>118</v>
+      </c>
+      <c r="J97" t="n">
+        <v>244</v>
+      </c>
+      <c r="K97" t="n">
+        <v>106.3785955860757</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3897044599.814808</v>
+        <v>3313159999.356034</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1076392475968621</v>
+        <v>0.09918949472219209</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02950095165872519</v>
+        <v>0.03184623666403037</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>239</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3109412662.527565</v>
+        <v>2177960023.487852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1087078815500607</v>
+        <v>0.1317203093749977</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02534482258527141</v>
+        <v>0.02651481029220656</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4442970493.656153</v>
+        <v>4577778162.050366</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1213439667502886</v>
+        <v>0.1649117513609815</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02656126562662281</v>
+        <v>0.02165792155007005</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>101</v>
+      </c>
+      <c r="J100" t="n">
+        <v>244</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2405884323.322487</v>
+        <v>2727507151.311178</v>
       </c>
       <c r="F101" t="n">
-        <v>0.166753479141163</v>
+        <v>0.1354874131549529</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04607625521566595</v>
+        <v>0.03845498439207432</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
